--- a/Freebitcoin/accList.xlsx
+++ b/Freebitcoin/accList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
   <si>
     <t>Acc</t>
   </si>
@@ -289,6 +289,141 @@
   </si>
   <si>
     <t>96.41.53.193</t>
+  </si>
+  <si>
+    <t>12a4is7i6ACxN5bpHXY2JUKnxoqV6AZndT</t>
+  </si>
+  <si>
+    <t>1Lzj2kxZRXfeD594Sm5Cd8Ain6GFWL2bw5</t>
+  </si>
+  <si>
+    <t>185sqwAGjC3F5hJ4JF2GB5tT4bG5rUE9D6</t>
+  </si>
+  <si>
+    <t>1A3TW7rM2VT27HQuKwLjgFV8GqeBJMBiH8</t>
+  </si>
+  <si>
+    <t>16wrnjm4pwFwLTTQvcLTL1K1BE4YDP4MJG</t>
+  </si>
+  <si>
+    <t>19LLDd5aC3oFyYW1WmfX8oRatzwNkBctW7</t>
+  </si>
+  <si>
+    <t>14JjKU3DRnirVmNm2LvwtZb7sfrv7Qx2YH</t>
+  </si>
+  <si>
+    <t>1FgLaffQTMLFMTBpNvyh8yz8ahZw23nXB7</t>
+  </si>
+  <si>
+    <t>1LoKFLevFtURyKVBpKe7cFMEwvsbuA6gw5</t>
+  </si>
+  <si>
+    <t>1NNLn5jPazrdz5xtJukvUv3MEvxYW8chei</t>
+  </si>
+  <si>
+    <t>1kmwQQg3EjKRLFiFRbef9NFHy4GgBnLvt</t>
+  </si>
+  <si>
+    <t>1LPiPc822g41HdMsDR7N8iVTC2cpUJwDpb</t>
+  </si>
+  <si>
+    <t>hoangtoanit6@outlook.com.vn</t>
+  </si>
+  <si>
+    <t>180.20.22.120</t>
+  </si>
+  <si>
+    <t>1KtqwawG832Kt9R6zQnvpK5YF17axiXP84</t>
+  </si>
+  <si>
+    <t>toanhv60@outlook.com.vn</t>
+  </si>
+  <si>
+    <t>124.122.142.57</t>
+  </si>
+  <si>
+    <t>toanhv61@outlook.com.vn</t>
+  </si>
+  <si>
+    <t>111.125.109.54</t>
+  </si>
+  <si>
+    <t>1E8PDbW8j8ndvMV4VSLE2yssVfuRgC7Da8</t>
+  </si>
+  <si>
+    <t>1Gi63Jyt5V6X5y5EKDjzH9YLaC2pjQ9ydg</t>
+  </si>
+  <si>
+    <t>toanhv62@outlook.com.vn</t>
+  </si>
+  <si>
+    <t>211.178.45.217</t>
+  </si>
+  <si>
+    <t>1C9qZjVMCt3JtiC6c7xTQC9KBviDY4n2VL</t>
+  </si>
+  <si>
+    <t>toanhv63@outlook.com.vn</t>
+  </si>
+  <si>
+    <t>110.8.247.81</t>
+  </si>
+  <si>
+    <t>1LRRYX7Kj5mR4VKh4gjPi4M71MCsjaKSxE</t>
+  </si>
+  <si>
+    <t>toanhv64@outlook.com.vn</t>
+  </si>
+  <si>
+    <t>179.211.189.100</t>
+  </si>
+  <si>
+    <t>1BQFgqduuH4nC4BZYqUUaWJHKjcsAJNK8z</t>
+  </si>
+  <si>
+    <t>toanhv65@outlook.com.vn</t>
+  </si>
+  <si>
+    <t>58.237.76.200</t>
+  </si>
+  <si>
+    <t>17Qu3NyYrxkZjDda2xgy8ojtxeX7pFu5Av</t>
+  </si>
+  <si>
+    <t>toanhv66@outlook.com.vn</t>
+  </si>
+  <si>
+    <t>60.138.226.225</t>
+  </si>
+  <si>
+    <t>13iBh6ivFiZWJRdehC8B4dEuv8vrY3ckgA</t>
+  </si>
+  <si>
+    <t>58.81.220.188</t>
+  </si>
+  <si>
+    <t>toanhv67@outlook.com.vn</t>
+  </si>
+  <si>
+    <t>17nY2ofxzd6DJDQnARKMV47rSjEFtcViBV</t>
+  </si>
+  <si>
+    <t>toanhv68@outlook.com.vn</t>
+  </si>
+  <si>
+    <t>114.204.83.145</t>
+  </si>
+  <si>
+    <t>19DeqdoWZNDvGXUDyvUfUR7x74b644vYuY</t>
+  </si>
+  <si>
+    <t>toanhv69@outlook.com.vn</t>
+  </si>
+  <si>
+    <t>121.137.255.69</t>
+  </si>
+  <si>
+    <t>1Q5TvvejtUnhgrwmeW9H8Kk8LTyYJ62JSb</t>
   </si>
 </sst>
 </file>
@@ -326,7 +461,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +471,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,11 +503,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -656,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -699,7 +848,7 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
@@ -719,7 +868,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -739,7 +888,7 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -750,7 +899,7 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
@@ -767,7 +916,7 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
@@ -784,7 +933,7 @@
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
@@ -801,6 +950,7 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
+      <c r="C8" s="4"/>
       <c r="E8" t="s">
         <v>23</v>
       </c>
@@ -812,6 +962,7 @@
       <c r="B9" t="s">
         <v>35</v>
       </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
@@ -820,7 +971,7 @@
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
@@ -837,6 +988,7 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
+      <c r="C11" s="4"/>
       <c r="E11" t="s">
         <v>23</v>
       </c>
@@ -848,6 +1000,7 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
+      <c r="C12" s="4"/>
       <c r="E12" t="s">
         <v>23</v>
       </c>
@@ -859,7 +1012,7 @@
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D13" t="s">
@@ -876,6 +1029,9 @@
       <c r="B14" t="s">
         <v>50</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
@@ -884,6 +1040,7 @@
       <c r="B15" t="s">
         <v>52</v>
       </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
@@ -892,6 +1049,7 @@
       <c r="B16" t="s">
         <v>54</v>
       </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
@@ -900,6 +1058,7 @@
       <c r="B17" t="s">
         <v>56</v>
       </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
@@ -908,6 +1067,7 @@
       <c r="B18" t="s">
         <v>58</v>
       </c>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
@@ -916,6 +1076,7 @@
       <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
@@ -924,6 +1085,7 @@
       <c r="B20" t="s">
         <v>62</v>
       </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
@@ -932,7 +1094,7 @@
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -943,7 +1105,7 @@
       <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -954,6 +1116,7 @@
       <c r="B23" t="s">
         <v>69</v>
       </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
@@ -962,6 +1125,9 @@
       <c r="B24" t="s">
         <v>71</v>
       </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
@@ -970,6 +1136,9 @@
       <c r="B25" t="s">
         <v>73</v>
       </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
@@ -978,6 +1147,9 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
@@ -986,6 +1158,9 @@
       <c r="B27" t="s">
         <v>76</v>
       </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
@@ -994,6 +1169,9 @@
       <c r="B28" t="s">
         <v>78</v>
       </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
@@ -1002,6 +1180,9 @@
       <c r="B29" t="s">
         <v>80</v>
       </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
@@ -1010,6 +1191,9 @@
       <c r="B30" t="s">
         <v>82</v>
       </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
@@ -1018,6 +1202,9 @@
       <c r="B31" t="s">
         <v>84</v>
       </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
@@ -1026,21 +1213,151 @@
       <c r="B32" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B33" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B34" t="s">
         <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1082,9 +1399,19 @@
     <hyperlink ref="A32" r:id="rId35"/>
     <hyperlink ref="A33" r:id="rId36"/>
     <hyperlink ref="A34" r:id="rId37"/>
+    <hyperlink ref="A36" r:id="rId38"/>
+    <hyperlink ref="A37" r:id="rId39"/>
+    <hyperlink ref="A38" r:id="rId40"/>
+    <hyperlink ref="A39" r:id="rId41"/>
+    <hyperlink ref="A40" r:id="rId42"/>
+    <hyperlink ref="A42" r:id="rId43"/>
+    <hyperlink ref="A43" r:id="rId44"/>
+    <hyperlink ref="A44" r:id="rId45"/>
+    <hyperlink ref="A45" r:id="rId46"/>
+    <hyperlink ref="A46" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
 

--- a/Freebitcoin/accList.xlsx
+++ b/Freebitcoin/accList.xlsx
@@ -430,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +459,13 @@
       <color rgb="FF008000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -503,13 +510,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -808,7 +816,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1125,7 +1133,7 @@
       <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1136,7 +1144,7 @@
       <c r="B25" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1147,7 +1155,7 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1158,7 +1166,7 @@
       <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1169,7 +1177,7 @@
       <c r="B28" t="s">
         <v>78</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1180,7 +1188,7 @@
       <c r="B29" t="s">
         <v>80</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1191,7 +1199,7 @@
       <c r="B30" t="s">
         <v>82</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1202,7 +1210,7 @@
       <c r="B31" t="s">
         <v>84</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1213,7 +1221,7 @@
       <c r="B32" t="s">
         <v>86</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1224,7 +1232,7 @@
       <c r="B33" t="s">
         <v>88</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1235,7 +1243,7 @@
       <c r="B34" t="s">
         <v>90</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1246,7 +1254,7 @@
       <c r="B36" t="s">
         <v>104</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1257,7 +1265,7 @@
       <c r="B37" t="s">
         <v>107</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1268,7 +1276,7 @@
       <c r="B38" t="s">
         <v>109</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1279,7 +1287,7 @@
       <c r="B39" t="s">
         <v>113</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1290,7 +1298,7 @@
       <c r="B40" t="s">
         <v>116</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1301,7 +1309,7 @@
       <c r="B41" t="s">
         <v>119</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1312,7 +1320,7 @@
       <c r="B42" t="s">
         <v>122</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1323,7 +1331,7 @@
       <c r="B43" t="s">
         <v>125</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1334,7 +1342,7 @@
       <c r="B44" t="s">
         <v>127</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1345,7 +1353,7 @@
       <c r="B45" t="s">
         <v>131</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1356,7 +1364,7 @@
       <c r="B46" t="s">
         <v>134</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="6" t="s">
         <v>135</v>
       </c>
     </row>
